--- a/Datasources/Season_Data/pass_types.xlsx
+++ b/Datasources/Season_Data/pass_types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4CEFE-74B8-48BD-B8B7-0919CEA7B567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6ADC02-15D7-4068-9E66-9F055FE88071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass Types" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>Player</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Player ID</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -390,11 +393,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,13 +703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -713,106 +719,109 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>33</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1164</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>803</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>354</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>109</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -829,64 +838,67 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>721</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>28.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1169</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1090</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>79</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>70</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -897,132 +909,138 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>985</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1429</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1231</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>195</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>148</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>87</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>32</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>38</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>986</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>39</v>
       </c>
-      <c r="V4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>75</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1090</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>847</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>239</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>58</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>229</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -1033,200 +1051,209 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>777</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>18</v>
       </c>
-      <c r="V5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>786</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>695</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>89</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>89</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>55</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>23</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>24</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>570</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="U6">
-        <v>20</v>
-      </c>
-      <c r="V6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21.9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>671</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>634</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>32</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>74</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>28</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>440</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>40</v>
       </c>
-      <c r="V7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>938</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>829</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>108</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>95</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -1237,64 +1264,67 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>686</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>12</v>
       </c>
-      <c r="V8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>23.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>557</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>526</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>29</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
         <v>7</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
@@ -1305,64 +1335,67 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>373</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>21</v>
       </c>
-      <c r="V9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21.3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>726</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>714</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -1373,64 +1406,67 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>600</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>12</v>
       </c>
-      <c r="V10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>380</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>345</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>35</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -1441,64 +1477,67 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>246</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>21</v>
       </c>
-      <c r="V11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>651</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>501</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>149</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>144</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1509,268 +1548,280 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>462</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>16</v>
       </c>
-      <c r="V12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>376</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>369</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>9</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>291</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
       <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
         <v>11</v>
       </c>
-      <c r="V13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>304</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>289</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>33</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>6</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>179</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>16</v>
       </c>
-      <c r="V14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12.4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>352</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>327</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>22</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>17</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>8</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>7</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>273</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>8</v>
       </c>
-      <c r="V15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11.9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>477</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>452</v>
       </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
       <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>5</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -1781,64 +1832,67 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>372</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>5</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3</v>
       </c>
-      <c r="V16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>163</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>151</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>15</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -1849,64 +1903,67 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>91</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>9</v>
       </c>
-      <c r="V17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>403</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>319</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>83</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>8</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>29</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>75</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -1917,120 +1974,126 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>293</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
       <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>9</v>
       </c>
-      <c r="V18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>312</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>294</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>42</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
       <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>200</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>15</v>
       </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>419</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>405</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
@@ -2038,11 +2101,11 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>2</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2053,64 +2116,67 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>345</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>6</v>
       </c>
-      <c r="V20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>322</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>261</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>59</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>54</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -2121,61 +2187,64 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>216</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5</v>
       </c>
-      <c r="V21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6.8</v>
-      </c>
-      <c r="G22">
-        <v>254</v>
       </c>
       <c r="H22">
         <v>254</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>0</v>
       </c>
@@ -2189,52 +2258,55 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>181</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>8</v>
       </c>
-      <c r="V22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>279</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>270</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>9</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -2242,11 +2314,11 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>4</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -2257,51 +2329,54 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>243</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>94</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>65</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>61</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
       </c>
       <c r="J24">
         <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2325,64 +2400,67 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>50</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>76</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>71</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>5</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -2393,51 +2471,54 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>57</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>3</v>
       </c>
-      <c r="V25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>96</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>17</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>11</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2461,66 +2542,69 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>23</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>68</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.6</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>56</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>54</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2529,64 +2613,67 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>37</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="V27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>98</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>19</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>17</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>2</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
       <c r="P28">
         <v>0</v>
       </c>
@@ -2597,45 +2684,48 @@
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>16</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>99</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.3</v>
-      </c>
-      <c r="G29">
-        <v>12</v>
       </c>
       <c r="H29">
         <v>12</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2665,40 +2755,43 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>6</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>2</v>
       </c>
-      <c r="V29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>100</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -2741,11 +2834,14 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2804,7 +2900,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
